--- a/results/frequencies.xlsx
+++ b/results/frequencies.xlsx
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.67</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>63.33</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>8.33</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6.67</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>41.67</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="3">
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33</v>
+        <v>58.62</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="3">
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>89.66</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>77.59</v>
       </c>
     </row>
     <row r="3">
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="4">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
@@ -803,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="6">
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.33</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="9">
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="10">
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +932,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>77.59</v>
       </c>
     </row>
     <row r="3">
@@ -945,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="4">
@@ -958,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>16.67</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="5">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.33</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -1063,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>89.66</v>
       </c>
     </row>
     <row r="4">
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.67</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>31.67</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="3">
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>41.67</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="4">
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>11.67</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="6">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>6.67</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="3">
@@ -1324,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="4">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>13.33</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="5">
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="6">
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>11.67</v>
+        <v>12.07</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="3">
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>16.67</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4">
@@ -1458,10 +1458,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>63.33</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="5">
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7">
@@ -1509,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -1563,10 +1563,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>23.33</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="3">
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>63.33</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="4">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.67</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,47 +1675,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>61.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35</v>
+        <v>36.21</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1757,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="4">
@@ -1804,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>15.52</v>
       </c>
     </row>
   </sheetData>
@@ -1858,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>76.67</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="3">
@@ -1877,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>23.33</v>
+        <v>24.14</v>
       </c>
     </row>
   </sheetData>

--- a/results/frequencies.xlsx
+++ b/results/frequencies.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>sample_source</t>
   </si>
@@ -41,45 +41,48 @@
     <t>percentage</t>
   </si>
   <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>employee_working_adult</t>
+  </si>
+  <si>
+    <t>student_employee</t>
+  </si>
+  <si>
+    <t>other_mixture</t>
+  </si>
+  <si>
+    <t>sample_recruitment</t>
+  </si>
+  <si>
     <t>unspecified</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>student-employee</t>
+    <t>university platform</t>
+  </si>
+  <si>
+    <t>crowdsource platform</t>
+  </si>
+  <si>
+    <t>workplace</t>
   </si>
   <si>
     <t>mixture</t>
   </si>
   <si>
-    <t>sample_recruitment</t>
-  </si>
-  <si>
-    <t>university platform</t>
-  </si>
-  <si>
-    <t>crowdsource platform</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>sample_method</t>
   </si>
   <si>
-    <t>volunteer</t>
+    <t>conveniance</t>
   </si>
   <si>
     <t>snowball</t>
   </si>
   <si>
-    <t>conveniance</t>
-  </si>
-  <si>
     <t>sample_platform</t>
   </si>
   <si>
@@ -98,12 +101,15 @@
     <t>undergraduate</t>
   </si>
   <si>
-    <t>non-managerial</t>
+    <t>non_managerial</t>
   </si>
   <si>
     <t>managerial</t>
   </si>
   <si>
+    <t>faculty</t>
+  </si>
+  <si>
     <t>sample_incentive</t>
   </si>
   <si>
@@ -116,7 +122,10 @@
     <t>raffle</t>
   </si>
   <si>
-    <t>results/feedback</t>
+    <t>results_feedback</t>
+  </si>
+  <si>
+    <t>training</t>
   </si>
   <si>
     <t>sample_country</t>
@@ -134,6 +143,15 @@
     <t>Germany</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>cr_multiple</t>
   </si>
   <si>
@@ -179,10 +197,10 @@
     <t>cr_method</t>
   </si>
   <si>
-    <t>attention check items / bogus items / instructed response</t>
-  </si>
-  <si>
-    <t>completion pace / response time</t>
+    <t>instructed response items</t>
+  </si>
+  <si>
+    <t>response time</t>
   </si>
   <si>
     <t>avg longstring</t>
@@ -203,16 +221,34 @@
     <t>SRSI effort</t>
   </si>
   <si>
-    <t>consistency</t>
+    <t>even-odd consistency</t>
   </si>
   <si>
     <t>PsySyn</t>
   </si>
   <si>
+    <t>Bogus items</t>
+  </si>
+  <si>
+    <t>unspecified attention check item</t>
+  </si>
+  <si>
+    <t>unspecified longstring</t>
+  </si>
+  <si>
+    <t>inter-item sd</t>
+  </si>
+  <si>
+    <t>person-total correlation</t>
+  </si>
+  <si>
     <t>cr_method_type</t>
   </si>
   <si>
-    <t>bogus_items</t>
+    <t>attention_check_items</t>
+  </si>
+  <si>
+    <t>outlier_analysis</t>
   </si>
   <si>
     <t>response_time</t>
@@ -221,13 +257,10 @@
     <t>response_pattern</t>
   </si>
   <si>
-    <t>outlier_analysis</t>
+    <t>consistency_indices</t>
   </si>
   <si>
     <t>self_reported</t>
-  </si>
-  <si>
-    <t>consistency_indices</t>
   </si>
 </sst>
 </file>
@@ -585,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,13 +643,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>7.69</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -624,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>16.92</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -638,13 +671,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -652,27 +685,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>7.69</v>
+        <v>16.84</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -704,30 +723,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>76.92</v>
+        <v>77.89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>23.08</v>
+        <v>22.11</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -759,30 +778,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>41.54</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>58.46</v>
+        <v>51.58</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -817,38 +836,38 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4.62</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>86.15000000000001</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>7.69</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -859,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +888,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,7 +896,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -891,35 +910,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>44.62</v>
+        <v>41.05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>27.69</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -928,12 +947,12 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -942,54 +961,54 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>16.92</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>7.69</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1.54</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6.15</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -998,26 +1017,26 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>4.62</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1026,10 +1045,13 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3.08</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
       <c r="B12">
         <v>12</v>
       </c>
@@ -1037,18 +1059,63 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>15.38</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>16.92</v>
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1077,68 +1144,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>44.62</v>
+        <v>68.42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>27.69</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>18.46</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>9.23</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>7.69</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.69</v>
+        <v>8.42</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1170,16 +1237,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1190,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>7.69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1204,38 +1271,52 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>49.23</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1.54</v>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1267,58 +1348,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>1.54</v>
+        <v>95.79000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>90.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1.54</v>
+        <v>4.21</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1350,58 +1403,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>36.92</v>
+        <v>37.89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36.92</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4.62</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>10.77</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1415,35 +1468,35 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3.08</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1.54</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>6.15</v>
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>
@@ -1452,103 +1505,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>53.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>12.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1558,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1572,86 +1528,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>9.23</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>16.92</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>61.54</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>3.08</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1.54</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
       <c r="D7">
-        <v>7.69</v>
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1683,49 +1764,49 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>24.62</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>63.08</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1.54</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1734,21 +1815,63 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>6.15</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4.62</v>
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1780,30 +1903,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>63.08</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>36.92</v>
+        <v>41.05</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1835,44 +1958,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>63.08</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>23.08</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>13.85</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
